--- a/Front-SIPROE/public/assets/Sorteos_Cancelados.xlsx
+++ b/Front-SIPROE/public/assets/Sorteos_Cancelados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCTOS DEL TRABAJO\253 SIPROE aleatorio\Reporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\SIPROE\Front-SIPROE\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33AD1CE-39C4-40E9-A6AB-DA971BF1A96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF91FDD-441E-4FB8-9EA8-1FE8038C743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3011D21D-C661-484B-A984-B19E2CC042F1}"/>
+    <workbookView xWindow="1230" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{3011D21D-C661-484B-A984-B19E2CC042F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -195,35 +195,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,57 +585,57 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" customWidth="1"/>
-    <col min="5" max="5" width="33.26953125" customWidth="1"/>
-    <col min="6" max="6" width="36.7265625" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
@@ -646,7 +646,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -655,31 +655,29 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="7"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="10"/>
       <c r="F9" s="6" t="s">
         <v>6</v>
@@ -688,7 +686,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
@@ -696,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>9</v>
       </c>

--- a/Front-SIPROE/public/assets/Sorteos_Cancelados.xlsx
+++ b/Front-SIPROE/public/assets/Sorteos_Cancelados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\SIPROE\Front-SIPROE\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF91FDD-441E-4FB8-9EA8-1FE8038C743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3296B29-C7AE-466B-9950-3F6A30CC2DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{3011D21D-C661-484B-A984-B19E2CC042F1}"/>
+    <workbookView xWindow="4380" yWindow="4185" windowWidth="21585" windowHeight="11295" xr2:uid="{3011D21D-C661-484B-A984-B19E2CC042F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>SECRETARÍA EJECUTIVA</t>
   </si>
@@ -33,12 +33,6 @@
     <t>DIRECCIÓN EJECUTIVA DE PARTICIPACIÓN CIUDADANA Y CAPACITACIÓN</t>
   </si>
   <si>
-    <t>UNIDAD TÉCNICA DE SERVICIOS INFORMÁTICOS</t>
-  </si>
-  <si>
-    <t>CONSULTA DE PRESUPUESTO PARTICIPATIVO 2024</t>
-  </si>
-  <si>
     <t>CONCENTRADO DE SORTEOS CANCELADOS</t>
   </si>
   <si>
@@ -73,6 +67,9 @@
   </si>
   <si>
     <t>NÚMERO DE EXPEDIENTE</t>
+  </si>
+  <si>
+    <t>CONSULTA DE PRESUPUESTO PARTICIPATIVO 2025</t>
   </si>
 </sst>
 </file>
@@ -116,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,12 +123,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,19 +202,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +576,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,51 +591,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -656,15 +645,15 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="A7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
@@ -675,12 +664,12 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="10"/>
       <c r="F9" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G9" s="11">
         <v>45736</v>
@@ -688,33 +677,33 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Front-SIPROE/public/assets/Sorteos_Cancelados.xlsx
+++ b/Front-SIPROE/public/assets/Sorteos_Cancelados.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\SIPROE\Front-SIPROE\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyects\SIPROE\Front-SIPROE\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3296B29-C7AE-466B-9950-3F6A30CC2DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="4185" windowWidth="21585" windowHeight="11295" xr2:uid="{3011D21D-C661-484B-A984-B19E2CC042F1}"/>
+    <workbookView xWindow="4380" yWindow="4188" windowWidth="21588" windowHeight="11292"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,13 +68,13 @@
     <t>NÚMERO DE EXPEDIENTE</t>
   </si>
   <si>
-    <t>CONSULTA DE PRESUPUESTO PARTICIPATIVO 2025</t>
+    <t>CONSULTA DE PRESUPUESTO PARTICIPATIVO 2026 - 2027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,19 +201,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,70 +571,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D015CCF-DCA2-4853-B23B-E7B08D8378EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -644,25 +643,25 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="7"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
@@ -675,7 +674,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
@@ -683,7 +682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
